--- a/Analyzed/try2/data_2023.xlsx
+++ b/Analyzed/try2/data_2023.xlsx
@@ -541,13 +541,13 @@
         <v>1973.91</v>
       </c>
       <c r="L2">
-        <v>76.7</v>
+        <v>2684.5</v>
       </c>
       <c r="M2">
         <v>57.39777636749596</v>
       </c>
       <c r="N2">
-        <v>58.64000000000001</v>
+        <v>1700.56</v>
       </c>
       <c r="O2">
         <v>1377.96</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z2">
         <v>3</v>
@@ -632,13 +632,13 @@
         <v>1607.876</v>
       </c>
       <c r="L3">
-        <v>66.8</v>
+        <v>2338</v>
       </c>
       <c r="M3">
         <v>70.77729911472707</v>
       </c>
       <c r="N3">
-        <v>82.49000000000001</v>
+        <v>2392.21</v>
       </c>
       <c r="O3">
         <v>1130.65</v>
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>6</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1616.549</v>
       </c>
       <c r="L4">
-        <v>65.60000000000001</v>
+        <v>2296</v>
       </c>
       <c r="M4">
         <v>67.4504681542796</v>
       </c>
       <c r="N4">
-        <v>50.03</v>
+        <v>1450.87</v>
       </c>
       <c r="O4">
         <v>1141.98</v>
@@ -814,13 +814,13 @@
         <v>1799.767</v>
       </c>
       <c r="L5">
-        <v>69.7</v>
+        <v>2439.5</v>
       </c>
       <c r="M5">
         <v>71.21505596535418</v>
       </c>
       <c r="N5">
-        <v>90.40000000000001</v>
+        <v>2621.6</v>
       </c>
       <c r="O5">
         <v>1232.19</v>
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>3</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>1792.849</v>
       </c>
       <c r="L6">
-        <v>60.6</v>
+        <v>2121</v>
       </c>
       <c r="M6">
         <v>68.93811993945289</v>
       </c>
       <c r="N6">
-        <v>2.200000000000005</v>
+        <v>63.80000000000014</v>
       </c>
       <c r="O6">
         <v>1232.89</v>
@@ -956,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1687.156</v>
       </c>
       <c r="L7">
-        <v>71.8</v>
+        <v>2513</v>
       </c>
       <c r="M7">
         <v>64.83745912587079</v>
       </c>
       <c r="N7">
-        <v>77.21000000000001</v>
+        <v>2239.09</v>
       </c>
       <c r="O7">
         <v>1088.06</v>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7">
         <v>3</v>
@@ -1044,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1772.104</v>
       </c>
       <c r="L8">
-        <v>66.5</v>
+        <v>2327.5</v>
       </c>
       <c r="M8">
         <v>69.93581936600228</v>
       </c>
       <c r="N8">
-        <v>42.33000000000001</v>
+        <v>1227.57</v>
       </c>
       <c r="O8">
         <v>1434.21</v>
@@ -1178,13 +1178,13 @@
         <v>1304.797</v>
       </c>
       <c r="L9">
-        <v>63.5</v>
+        <v>2222.5</v>
       </c>
       <c r="M9">
         <v>72.50116186523059</v>
       </c>
       <c r="N9">
-        <v>29.93</v>
+        <v>867.97</v>
       </c>
       <c r="O9">
         <v>1343.51</v>
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1269,13 +1269,13 @@
         <v>1298.418</v>
       </c>
       <c r="L10">
-        <v>60.8</v>
+        <v>2128</v>
       </c>
       <c r="M10">
         <v>77.23607863925999</v>
       </c>
       <c r="N10">
-        <v>47.54000000000001</v>
+        <v>1378.66</v>
       </c>
       <c r="O10">
         <v>1297.75</v>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z10">
         <v>3</v>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="AC10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1360,13 +1360,13 @@
         <v>1977.222</v>
       </c>
       <c r="L11">
-        <v>64.60000000000001</v>
+        <v>2261</v>
       </c>
       <c r="M11">
         <v>91.57211352739662</v>
       </c>
       <c r="N11">
-        <v>-17.71</v>
+        <v>-513.5899999999999</v>
       </c>
       <c r="O11">
         <v>1297.74</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
